--- a/src/test/resources/testdata/LoginData.xlsx
+++ b/src/test/resources/testdata/LoginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{44DA2E8A-A696-4EFF-BE0B-3DE3FE6595D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5E9FBD02-8441-4F27-9D63-66EB4ED7F9E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="1950" xr2:uid="{20880B4D-AA94-44B3-A107-A34D6E7F2D89}"/>
   </bookViews>
@@ -21,31 +21,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Username/Email</t>
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Aadi123456</t>
+  </si>
+  <si>
+    <t>Aadi234567</t>
+  </si>
+  <si>
+    <t>user2@gmail.com</t>
+  </si>
+  <si>
+    <t>user3@gmail.com</t>
+  </si>
+  <si>
+    <t>As863380</t>
+  </si>
+  <si>
+    <t>adils875078@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -68,13 +85,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,47 +410,53 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12345</v>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>123456</v>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>234567</v>
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{0CFABF50-B492-4CC4-927E-15B47677AF41}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{E6D47322-39FC-4D82-9D93-35855AE1A2FE}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{457611EE-6271-403B-A757-6934CF2C7C8F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>